--- a/Excel exercises.xlsx
+++ b/Excel exercises.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\Skillbox\домашки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD457014-BC9E-4784-B22D-A3953C0DC648}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B28E4A17-7570-4B80-941B-FF04FB771EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="25528" windowHeight="15486" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="25528" windowHeight="15486" tabRatio="727" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Вводная" sheetId="8" r:id="rId1"/>
@@ -22,12 +22,28 @@
     <sheet name="ВПР+ЕСЛИ" sheetId="30" r:id="rId7"/>
     <sheet name="Текстовые" sheetId="31" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="279">
+  <si>
+    <t>Заказ</t>
+  </si>
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -35,351 +51,348 @@
     <t>Артикул</t>
   </si>
   <si>
-    <t>Заказ</t>
+    <t>Количество</t>
   </si>
   <si>
     <t>Наименование</t>
   </si>
   <si>
-    <t>Количество</t>
-  </si>
-  <si>
     <t>Цена за шт.</t>
   </si>
   <si>
+    <t>Сумма позиции</t>
+  </si>
+  <si>
+    <t>H357</t>
+  </si>
+  <si>
     <t>N769</t>
   </si>
   <si>
+    <t>Ноутбук ASUS K56CB-XX037,  4096Mb, 1000Gb, DVD-SMulti, GF GT740M 2048M, BT, WiFi, WEB-Cam1.3MP, noOS, 2.6kg, Black</t>
+  </si>
+  <si>
+    <t>D922</t>
+  </si>
+  <si>
     <t>F320</t>
   </si>
   <si>
+    <t>Ноутбук ASUS K56CB-XX038,  4096Mb, 1000Gb, DVD-SMulti, GF GT740M 2048M, BT, WiFi, WEB-Cam1.3MP, noOS, 2.3kg, Black</t>
+  </si>
+  <si>
     <t>B432</t>
   </si>
   <si>
+    <t>Ноутбук ASUS PU500CA  15.6"HD, Intel Core i3 3217U, 4096Mb, 500Gb, No ODD, Intel HD4000, BT, WiFi, WEB-Cam, noOS, 1.9kg, Black</t>
+  </si>
+  <si>
+    <t>G031</t>
+  </si>
+  <si>
     <t>J707</t>
   </si>
   <si>
+    <t>Ноутбук ASUS X502CA-XX005D,  2048Mb, 320Gb, No ODD, Intel HD, BT, WiFi, WEB-Cam1.3MP, noOS, 2.07kg, Dark Blue</t>
+  </si>
+  <si>
     <t>K723</t>
   </si>
   <si>
+    <t>Ноутбук ASUS X502CA-XX006D,  2048Mb, 320Gb, No ODD, Intel HD, BT, WiFi, WEB-Cam1.3MP, noOS, 2.07kg, White</t>
+  </si>
+  <si>
+    <t>G486</t>
+  </si>
+  <si>
     <t>I588</t>
   </si>
   <si>
+    <t>Ноутбук ASUS X502CA-XX048D,  4096Mb, 500Gb, No ODD, Intel HD, BT, WiFi, WEB-Cam1.3MP, noOS, 1.8kg, White</t>
+  </si>
+  <si>
+    <t>C218</t>
+  </si>
+  <si>
     <t>K187</t>
   </si>
   <si>
+    <t>Ноутбук ASUS X502CA-XX087D,  4096Mb, 500Gb, No ODD, Intel HD, BT, WiFi, WEB-Cam1.3MP, noOS, 1.8kg, Black</t>
+  </si>
+  <si>
+    <t>D271</t>
+  </si>
+  <si>
     <t>E041</t>
   </si>
   <si>
+    <t xml:space="preserve">Ноутбук ASUS X550CC-XX030D, 4GB DDR3 1600,500GB,DVD-SM,15.6"HD LED,GeForce GT720M 2GB,VGA,HDMI,GLAN,WiFi,BT,WC HD,USB3.0,USB2.0,CR3in1,4cell 3000mAH,DOS,2.3kg,Dark Gray </t>
+  </si>
+  <si>
     <t>L615</t>
   </si>
   <si>
+    <t xml:space="preserve">Ноутбук ASUS X550CC-XX204D, 4GB DDR3 1600,750GB,DVD-SM,15.6"HD LED,GeForce GT720M 2GB,VGA,HDMI,GLAN,WiFi,BT,WC HD,USB3.0,USB2.0,CR3in1,4cell 3000mAH,DOS,2.3kg,White </t>
+  </si>
+  <si>
     <t>M399</t>
   </si>
   <si>
+    <t xml:space="preserve">Ноутбук ASUS X550DP-XX001D, 4GB DDR3 1600,750GB,AMD HD8670M 2GB,DVD-SM,VGA,HDMI,GLAN,WiFi,BT,WC HD,USB3.0,USB2.0,CR2in1,4cell 3000mAh,DOS,2.26kg,Dark Gray </t>
+  </si>
+  <si>
+    <t>Общая сумма заказа</t>
+  </si>
+  <si>
     <t>A733</t>
   </si>
   <si>
-    <t>H357</t>
+    <t xml:space="preserve">Ноутбук ASUS X550VB-XX019D, 4GB DDR3 1600,750GB,GeForce GT740M 2GB,DVD-SM,VGA,HDMI,GLAN,WiFi,BT,WC HD,USB3.0,USB2.0,CR3in1,4cell 3000mAH,DOS,2.3kg,Dark Gray </t>
+  </si>
+  <si>
+    <t>Ноутбук ASUS X55A-SX208D,  2048Mb, 320Gb, DVD-SMulti, Intel HD, BT, WiFi, WEB-Cam, noOS, 2.6kg, Black</t>
   </si>
   <si>
     <t>O705</t>
   </si>
   <si>
+    <t>Ноутбук ASUS X75A-TY164D,  4096Mb, 750Gb, DVD-SMulti, Intel HD, WiFi, BT, WEB-Cam, noOS, 3kg, Dark Blue</t>
+  </si>
+  <si>
     <t>P074</t>
   </si>
   <si>
-    <t>G031</t>
+    <t>Ноутбук ASUS X75VC-TY013D,  4096Mb, 500Gb, DVD-SMulti, GF GT720M 2048M, WiFi, BT, WEB-Cam, noOS, 3kg, Black</t>
+  </si>
+  <si>
+    <t>Ноутбук ASUS X75VC-TY014D,  4096Mb, 500Gb, DVD-SMulti, GF GT720M 2048M, WiFi, BT, WEB-Cam, noOS, 3kg, White</t>
   </si>
   <si>
     <t>P797</t>
   </si>
   <si>
+    <t>Ноутбук ASUS X75VC-TY021D,  4096Mb, 500Gb, DVD-SMulti, GF GT720M 2048M, WiFi, BT, WEB-Cam, noOS, 3kg, Black</t>
+  </si>
+  <si>
     <t>I376</t>
   </si>
   <si>
+    <t xml:space="preserve">Ноутбук ASUS X75VD-TY202D, 4GB DDR3 1600,500GB,DVD-SM,17.3"HD+ LED,GeForce GT610M 1GB,VGA,HDMI,GLAN,WiFi b/g/n,BT4.0,WC HD,USB3.0,2xUSB2.0,CR3in1,6cell 4400mAH,DOS,3.0kg,Dark Blue </t>
+  </si>
+  <si>
     <t>B830</t>
   </si>
   <si>
+    <t>Ноутбук HP 255, 4GB DDR3 1600,500GB,DVD-SM,15.6"HD AG,AMD HD7340M,VGA,HDMI,GLAN,WiFi b/g/n,BT,WC 2.0Mp,3xUSB2.0,CR2in1,6cell,Linux,2.45kg,Black</t>
+  </si>
+  <si>
     <t>D904</t>
   </si>
   <si>
+    <t>Ноутбук HP 650, 4GB DDR3 1600,500GB,DVD-SM,15.6"HD AG,Intel HD 3000,VGA,HDMI,GLAN,WiFi b/g/n,BT,WC 2.0Mp,3xUSB2.0,CR2in1,6cell,Linux,2.45kg,Black</t>
+  </si>
+  <si>
     <t>F503</t>
   </si>
   <si>
+    <t>Ноутбук HP 655, 2GB DDR3 1333,500GB,DVD-SM,15.6"HD AG,AMD HD7310M,VGA,HDMI,GLAN,WiFi b/g/n,BT,WC 2.0Mp,3xUSB2.0,CR2in1,6cell,Linux,2.45kg,Black</t>
+  </si>
+  <si>
     <t>B967</t>
   </si>
   <si>
+    <t>Ноутбук HP 655, 2GB DDR3 1333,320GB,DVD-SM,15.6"HD AG,AMD HD7310M,VGA,HDMI,GLAN,WiFi b/g/n,BT,WC 2.0Mp,3xUSB2.0,CR2in1,6cell,Linux,2.45kg,Black</t>
+  </si>
+  <si>
     <t>J733</t>
   </si>
   <si>
+    <t>Ноутбук HP ENVY 6-1058er, 6GB DDR3 1333,500GB,no ODD,15.6"HD LED,Intel HD 4000,VGA,HDMI,GLAN,WiFi b/g/n,BT,WC HD,2xUSB3.0,USB2.0,CR5in1,4cell,Win 7 HP 64bit,2.15kg,Black Aluminum</t>
+  </si>
+  <si>
     <t>G289</t>
   </si>
   <si>
+    <t>Ноутбук HP Pavilion 15-b179sr  15.6"HD G, Intel Core i5 3317U, 8Gb, 750Gb, No ODD, GF GT630M 2048M, BT, WiFi, WEB-Cam, noOS, 2.1kg, Black</t>
+  </si>
+  <si>
     <t>B043</t>
   </si>
   <si>
+    <t>Ноутбук HP Pavilion 15-e025sr, 4GB DDR3 1333,500GB,DVD±R/RW DL,15.6"HD LED,AMD HD8330 1GB,VGA,HDMI,LAN,WiFi b/g/n,BT,WC 0.3Mp,3xUSB2.0,CR3in1,6cell,DOS,2.55kg,Anno Silver+sparkling black</t>
+  </si>
+  <si>
     <t>L612</t>
   </si>
   <si>
+    <t xml:space="preserve">Ноутбук HP Pavilion 15-e089sr  Intel Core i5-3230M, 4GB DDR3 1600,750GB,DVD-SM LS,15.6"HD BV LED,AMD HD8670 1GB,VGA,HDMI,LAN,WiFi b/g/n,BT4.0,WC HD,2xUSB3.0,USB2.0,CR5in1,6cell,DOS,2.48kg,Anno Silver+sparkling black </t>
+  </si>
+  <si>
     <t>B914</t>
   </si>
   <si>
+    <t xml:space="preserve">Ноутбук HP Pavilion 17-e078sr, 4GB DDR3 1600,750GB,DVD-SM LS,17.3"HD+ BV LED,AMD HD8670 1GB,VGA,HDMI,LAN,WiFi b/g/n,BT4.0,WC HD,2xUSB3.0,USB2.0,CR5in1,6cell,DOS,2.98kg,Anno Silver+sparkling black </t>
+  </si>
+  <si>
     <t>K804</t>
   </si>
   <si>
+    <t>Ноутбук HP ProBook 450, 4GB DDR3 1600,500GB,DVD-SM LS,15.6"HD LED AG,AMD HD8750 1Gb,VGA,HDMI,GLAN,WiFi b/g/n,BT4.0,WC HD,2xUSB3.0,2xUSB2.0,CR5in1,6cell,bag,Linux,2.3kg,Metallic Grey</t>
+  </si>
+  <si>
     <t>G681</t>
   </si>
   <si>
-    <t>D922</t>
+    <t>Ноутбук HP ProBook 4540s, 6GB DDR3 1333,750GB,DVD-SM LS,15.6"HD LED AG,AMD HD7650M 1GB,VGA,HDMI,GLAN,WiFi b/g/n,BT4.0,WC HD,2xUSB3.0,2xUSB2.0,CR5in1,6cell,Linux,2.47kg,Metallic Grey</t>
+  </si>
+  <si>
+    <t>Ноутбук HP ProBook 4540s + сумка  15.6"HD, Pentium DC 2020M,  6Gb, 750Gb, DVD-SMulti, HD7650 2048M, WiFi, BT, WEB-Cam2MP, noOS, 2.4kg, + bag</t>
   </si>
   <si>
     <t>P887</t>
   </si>
   <si>
+    <t>Ноутбук HP ProBook 4545s, 4GB DDR3 1333,750GB,DVD-SM LS,15.6"HD LED AG,AMD HD7650M 2GB,VGA,HDMI,GLAN,WiFi b/g/n,BT4.0,WC HD,2xUSB3.0,2xUSB2.0,CR5in1,6cell,bag,Linux,2.47kg,Metallic Grey</t>
+  </si>
+  <si>
     <t>L787</t>
   </si>
   <si>
+    <t>Ноутбук HP ProBook 4740s, 6GB DDR3 1333,750GB,DVD-SM LS,17.3"HD+ LED AG,AMD HD7650M 2GB,VGA,HDMI,GLAN,WiFi b/g/n,BT4.0,WC HD,2xUSB3.0,2xUSB2.0,CR5in1,8cell,Linux,2.92kg,Metallic Grey</t>
+  </si>
+  <si>
     <t>C465</t>
   </si>
   <si>
-    <t>D271</t>
+    <t>Ноутбук HP ProBook 4740s + сумка  17.3"HD+ LED, Intel Core i3 3120M,  4096Mb, 500Gb, DVD-SMulti, HD7650 1024M, BT, WiFi, WEB-Cam2MP, noOS, 2.9kg, Silver, + bag</t>
+  </si>
+  <si>
+    <t>Сумка для ноутбука 13.3" HQ-Tech  Black-Brown, нейлон, женская, Damask Nylon</t>
   </si>
   <si>
     <t>O721</t>
   </si>
   <si>
+    <t>Сумка для ноутбука 14.0" KRUSELL Kalix netbook Shoulderbag  Sand, иск.кожа</t>
+  </si>
+  <si>
     <t>M708</t>
   </si>
   <si>
+    <t xml:space="preserve">Сумка для ноутбука 15-16" X-Digital Laptop Mono 116BL  </t>
+  </si>
+  <si>
     <t>E653</t>
   </si>
   <si>
+    <t>Сумка для ноутбука 15,6" Golla Kent  Black</t>
+  </si>
+  <si>
     <t>P465</t>
   </si>
   <si>
+    <t>Сумка для ноутбука 15,6" LogicFox  Black, нейлон</t>
+  </si>
+  <si>
     <t>P436</t>
   </si>
   <si>
     <t>G340</t>
   </si>
   <si>
+    <t>Сумка для ноутбука 15,6" LogicFox  Dark Grey, нейлон</t>
+  </si>
+  <si>
     <t>D926</t>
   </si>
   <si>
+    <t>Сумка для ноутбука 15,6" LogicFox  Black, нейлон, черный, плечевой ремень</t>
+  </si>
+  <si>
     <t>M752</t>
   </si>
   <si>
+    <t>Сумка для ноутбука 15.6" CASE LOGIC VNCI215  Black, полиэстер, 386x46x274мм</t>
+  </si>
+  <si>
     <t>L675</t>
   </si>
   <si>
+    <t>Сумка для ноутбука 15.6" CRUMPLER Spanky Jones Espresso  Brown, Оригинальная ткань 1000D Chicken Tex Supreme</t>
+  </si>
+  <si>
     <t>B935</t>
   </si>
   <si>
+    <t>Сумка для ноутбука 15.6" G-Cube Golden Sunset  Black-Golden</t>
+  </si>
+  <si>
     <t>D939</t>
   </si>
   <si>
-    <t>C218</t>
+    <t>Сумка для ноутбука 15.6" G-Cube Paint Splash  Grey-Golden</t>
+  </si>
+  <si>
+    <t>Сумка для ноутбука 15.6" G-Cube Paint Splash  Handle-Violet</t>
   </si>
   <si>
     <t>A375</t>
   </si>
   <si>
+    <t>Сумка для ноутбука 15.6" HQ-Tech  Black, Нейлон 1680D</t>
+  </si>
+  <si>
     <t>A197</t>
   </si>
   <si>
+    <t xml:space="preserve">Сумка для ноутбука 15.6" HQ-Tech EE-15116H </t>
+  </si>
+  <si>
     <t>A055</t>
   </si>
   <si>
+    <t xml:space="preserve">Сумка для ноутбука 15.6" HQ-Tech EE-15117H </t>
+  </si>
+  <si>
     <t>J956</t>
   </si>
   <si>
+    <t xml:space="preserve">Сумка для ноутбука 15.6" HQ-Tech EE-15119H </t>
+  </si>
+  <si>
     <t>I086</t>
   </si>
   <si>
+    <t xml:space="preserve">Сумка для ноутбука 15.6" HQ-Tech EE-15142S </t>
+  </si>
+  <si>
     <t>I621</t>
   </si>
   <si>
+    <t xml:space="preserve">Сумка для ноутбука 15.6" HQ-Tech EE-15146H </t>
+  </si>
+  <si>
     <t>C361</t>
   </si>
   <si>
-    <t>G486</t>
+    <t xml:space="preserve">Сумка для ноутбука 15.6" HQ-Tech EE-1516H </t>
   </si>
   <si>
     <t>A333</t>
   </si>
   <si>
+    <t xml:space="preserve">Сумка для ноутбука 15.6" HQ-Tech EE-15232S </t>
+  </si>
+  <si>
     <t>H391</t>
   </si>
   <si>
-    <t>Ноутбук ASUS PU500CA  15.6"HD, Intel Core i3 3217U, 4096Mb, 500Gb, No ODD, Intel HD4000, BT, WiFi, WEB-Cam, noOS, 1.9kg, Black</t>
-  </si>
-  <si>
-    <t>Ноутбук HP Pavilion 15-b179sr  15.6"HD G, Intel Core i5 3317U, 8Gb, 750Gb, No ODD, GF GT630M 2048M, BT, WiFi, WEB-Cam, noOS, 2.1kg, Black</t>
-  </si>
-  <si>
-    <t>Сумка для ноутбука 13.3" HQ-Tech  Black-Brown, нейлон, женская, Damask Nylon</t>
-  </si>
-  <si>
-    <t>Сумка для ноутбука 14.0" KRUSELL Kalix netbook Shoulderbag  Sand, иск.кожа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сумка для ноутбука 15-16" X-Digital Laptop Mono 116BL  </t>
-  </si>
-  <si>
-    <t>Сумка для ноутбука 15,6" Golla Kent  Black</t>
-  </si>
-  <si>
-    <t>Сумка для ноутбука 15,6" LogicFox  Black, нейлон</t>
-  </si>
-  <si>
-    <t>Сумка для ноутбука 15,6" LogicFox  Dark Grey, нейлон</t>
-  </si>
-  <si>
-    <t>Сумка для ноутбука 15,6" LogicFox  Black, нейлон, черный, плечевой ремень</t>
-  </si>
-  <si>
-    <t>Сумка для ноутбука 15.6" CASE LOGIC VNCI215  Black, полиэстер, 386x46x274мм</t>
-  </si>
-  <si>
-    <t>Сумка для ноутбука 15.6" CRUMPLER Spanky Jones Espresso  Brown, Оригинальная ткань 1000D Chicken Tex Supreme</t>
-  </si>
-  <si>
-    <t>Сумка для ноутбука 15.6" G-Cube Golden Sunset  Black-Golden</t>
-  </si>
-  <si>
-    <t>Сумка для ноутбука 15.6" G-Cube Paint Splash  Grey-Golden</t>
-  </si>
-  <si>
-    <t>Сумка для ноутбука 15.6" G-Cube Paint Splash  Handle-Violet</t>
-  </si>
-  <si>
-    <t>Сумка для ноутбука 15.6" HQ-Tech  Black, Нейлон 1680D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сумка для ноутбука 15.6" HQ-Tech EE-15116H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сумка для ноутбука 15.6" HQ-Tech EE-15117H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сумка для ноутбука 15.6" HQ-Tech EE-15119H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сумка для ноутбука 15.6" HQ-Tech EE-15142S </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сумка для ноутбука 15.6" HQ-Tech EE-15146H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сумка для ноутбука 15.6" HQ-Tech EE-1516H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сумка для ноутбука 15.6" HQ-Tech EE-15232S </t>
-  </si>
-  <si>
     <t xml:space="preserve">Сумка для ноутбука 15.6" HQ-Tech EE-1541H </t>
   </si>
   <si>
     <t xml:space="preserve">Сумка для ноутбука 15.6" HQ-Tech EE-15509S </t>
   </si>
   <si>
-    <t>Ноутбук ASUS K56CB-XX037,  4096Mb, 1000Gb, DVD-SMulti, GF GT740M 2048M, BT, WiFi, WEB-Cam1.3MP, noOS, 2.6kg, Black</t>
-  </si>
-  <si>
-    <t>Ноутбук ASUS K56CB-XX038,  4096Mb, 1000Gb, DVD-SMulti, GF GT740M 2048M, BT, WiFi, WEB-Cam1.3MP, noOS, 2.3kg, Black</t>
-  </si>
-  <si>
-    <t>Ноутбук ASUS X502CA-XX005D,  2048Mb, 320Gb, No ODD, Intel HD, BT, WiFi, WEB-Cam1.3MP, noOS, 2.07kg, Dark Blue</t>
-  </si>
-  <si>
-    <t>Ноутбук ASUS X502CA-XX006D,  2048Mb, 320Gb, No ODD, Intel HD, BT, WiFi, WEB-Cam1.3MP, noOS, 2.07kg, White</t>
-  </si>
-  <si>
-    <t>Ноутбук ASUS X502CA-XX048D,  4096Mb, 500Gb, No ODD, Intel HD, BT, WiFi, WEB-Cam1.3MP, noOS, 1.8kg, White</t>
-  </si>
-  <si>
-    <t>Ноутбук ASUS X502CA-XX087D,  4096Mb, 500Gb, No ODD, Intel HD, BT, WiFi, WEB-Cam1.3MP, noOS, 1.8kg, Black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ноутбук ASUS X550CC-XX030D, 4GB DDR3 1600,500GB,DVD-SM,15.6"HD LED,GeForce GT720M 2GB,VGA,HDMI,GLAN,WiFi,BT,WC HD,USB3.0,USB2.0,CR3in1,4cell 3000mAH,DOS,2.3kg,Dark Gray </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ноутбук ASUS X550CC-XX204D, 4GB DDR3 1600,750GB,DVD-SM,15.6"HD LED,GeForce GT720M 2GB,VGA,HDMI,GLAN,WiFi,BT,WC HD,USB3.0,USB2.0,CR3in1,4cell 3000mAH,DOS,2.3kg,White </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ноутбук ASUS X550DP-XX001D, 4GB DDR3 1600,750GB,AMD HD8670M 2GB,DVD-SM,VGA,HDMI,GLAN,WiFi,BT,WC HD,USB3.0,USB2.0,CR2in1,4cell 3000mAh,DOS,2.26kg,Dark Gray </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ноутбук ASUS X550VB-XX019D, 4GB DDR3 1600,750GB,GeForce GT740M 2GB,DVD-SM,VGA,HDMI,GLAN,WiFi,BT,WC HD,USB3.0,USB2.0,CR3in1,4cell 3000mAH,DOS,2.3kg,Dark Gray </t>
-  </si>
-  <si>
-    <t>Ноутбук ASUS X55A-SX208D,  2048Mb, 320Gb, DVD-SMulti, Intel HD, BT, WiFi, WEB-Cam, noOS, 2.6kg, Black</t>
-  </si>
-  <si>
-    <t>Ноутбук ASUS X75A-TY164D,  4096Mb, 750Gb, DVD-SMulti, Intel HD, WiFi, BT, WEB-Cam, noOS, 3kg, Dark Blue</t>
-  </si>
-  <si>
-    <t>Ноутбук ASUS X75VC-TY013D,  4096Mb, 500Gb, DVD-SMulti, GF GT720M 2048M, WiFi, BT, WEB-Cam, noOS, 3kg, Black</t>
-  </si>
-  <si>
-    <t>Ноутбук ASUS X75VC-TY014D,  4096Mb, 500Gb, DVD-SMulti, GF GT720M 2048M, WiFi, BT, WEB-Cam, noOS, 3kg, White</t>
-  </si>
-  <si>
-    <t>Ноутбук ASUS X75VC-TY021D,  4096Mb, 500Gb, DVD-SMulti, GF GT720M 2048M, WiFi, BT, WEB-Cam, noOS, 3kg, Black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ноутбук ASUS X75VD-TY202D, 4GB DDR3 1600,500GB,DVD-SM,17.3"HD+ LED,GeForce GT610M 1GB,VGA,HDMI,GLAN,WiFi b/g/n,BT4.0,WC HD,USB3.0,2xUSB2.0,CR3in1,6cell 4400mAH,DOS,3.0kg,Dark Blue </t>
-  </si>
-  <si>
-    <t>Ноутбук HP ENVY 6-1058er, 6GB DDR3 1333,500GB,no ODD,15.6"HD LED,Intel HD 4000,VGA,HDMI,GLAN,WiFi b/g/n,BT,WC HD,2xUSB3.0,USB2.0,CR5in1,4cell,Win 7 HP 64bit,2.15kg,Black Aluminum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ноутбук HP Pavilion 15-e089sr  Intel Core i5-3230M, 4GB DDR3 1600,750GB,DVD-SM LS,15.6"HD BV LED,AMD HD8670 1GB,VGA,HDMI,LAN,WiFi b/g/n,BT4.0,WC HD,2xUSB3.0,USB2.0,CR5in1,6cell,DOS,2.48kg,Anno Silver+sparkling black </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ноутбук HP Pavilion 17-e078sr, 4GB DDR3 1600,750GB,DVD-SM LS,17.3"HD+ BV LED,AMD HD8670 1GB,VGA,HDMI,LAN,WiFi b/g/n,BT4.0,WC HD,2xUSB3.0,USB2.0,CR5in1,6cell,DOS,2.98kg,Anno Silver+sparkling black </t>
-  </si>
-  <si>
-    <t>Ноутбук HP ProBook 4540s + сумка  15.6"HD, Pentium DC 2020M,  6Gb, 750Gb, DVD-SMulti, HD7650 2048M, WiFi, BT, WEB-Cam2MP, noOS, 2.4kg, + bag</t>
-  </si>
-  <si>
-    <t>Ноутбук HP ProBook 4740s + сумка  17.3"HD+ LED, Intel Core i3 3120M,  4096Mb, 500Gb, DVD-SMulti, HD7650 1024M, BT, WiFi, WEB-Cam2MP, noOS, 2.9kg, Silver, + bag</t>
-  </si>
-  <si>
-    <t>Ноутбук HP 255, 4GB DDR3 1600,500GB,DVD-SM,15.6"HD AG,AMD HD7340M,VGA,HDMI,GLAN,WiFi b/g/n,BT,WC 2.0Mp,3xUSB2.0,CR2in1,6cell,Linux,2.45kg,Black</t>
-  </si>
-  <si>
-    <t>Ноутбук HP 650, 4GB DDR3 1600,500GB,DVD-SM,15.6"HD AG,Intel HD 3000,VGA,HDMI,GLAN,WiFi b/g/n,BT,WC 2.0Mp,3xUSB2.0,CR2in1,6cell,Linux,2.45kg,Black</t>
-  </si>
-  <si>
-    <t>Ноутбук HP 655, 2GB DDR3 1333,500GB,DVD-SM,15.6"HD AG,AMD HD7310M,VGA,HDMI,GLAN,WiFi b/g/n,BT,WC 2.0Mp,3xUSB2.0,CR2in1,6cell,Linux,2.45kg,Black</t>
-  </si>
-  <si>
-    <t>Ноутбук HP 655, 2GB DDR3 1333,320GB,DVD-SM,15.6"HD AG,AMD HD7310M,VGA,HDMI,GLAN,WiFi b/g/n,BT,WC 2.0Mp,3xUSB2.0,CR2in1,6cell,Linux,2.45kg,Black</t>
-  </si>
-  <si>
-    <t>Ноутбук HP Pavilion 15-e025sr, 4GB DDR3 1333,500GB,DVD±R/RW DL,15.6"HD LED,AMD HD8330 1GB,VGA,HDMI,LAN,WiFi b/g/n,BT,WC 0.3Mp,3xUSB2.0,CR3in1,6cell,DOS,2.55kg,Anno Silver+sparkling black</t>
-  </si>
-  <si>
-    <t>Ноутбук HP ProBook 450, 4GB DDR3 1600,500GB,DVD-SM LS,15.6"HD LED AG,AMD HD8750 1Gb,VGA,HDMI,GLAN,WiFi b/g/n,BT4.0,WC HD,2xUSB3.0,2xUSB2.0,CR5in1,6cell,bag,Linux,2.3kg,Metallic Grey</t>
-  </si>
-  <si>
-    <t>Ноутбук HP ProBook 4540s, 6GB DDR3 1333,750GB,DVD-SM LS,15.6"HD LED AG,AMD HD7650M 1GB,VGA,HDMI,GLAN,WiFi b/g/n,BT4.0,WC HD,2xUSB3.0,2xUSB2.0,CR5in1,6cell,Linux,2.47kg,Metallic Grey</t>
-  </si>
-  <si>
-    <t>Ноутбук HP ProBook 4545s, 4GB DDR3 1333,750GB,DVD-SM LS,15.6"HD LED AG,AMD HD7650M 2GB,VGA,HDMI,GLAN,WiFi b/g/n,BT4.0,WC HD,2xUSB3.0,2xUSB2.0,CR5in1,6cell,bag,Linux,2.47kg,Metallic Grey</t>
-  </si>
-  <si>
-    <t>Ноутбук HP ProBook 4740s, 6GB DDR3 1333,750GB,DVD-SM LS,17.3"HD+ LED AG,AMD HD7650M 2GB,VGA,HDMI,GLAN,WiFi b/g/n,BT4.0,WC HD,2xUSB3.0,2xUSB2.0,CR5in1,8cell,Linux,2.92kg,Metallic Grey</t>
-  </si>
-  <si>
-    <t>Общая сумма заказа</t>
-  </si>
-  <si>
-    <t>Сумма позиции</t>
-  </si>
-  <si>
     <t>Студент</t>
   </si>
   <si>
@@ -392,6 +405,9 @@
     <t>Критерии оценок</t>
   </si>
   <si>
+    <t>Ершова Валентина Олеговна</t>
+  </si>
+  <si>
     <t>Вишнякова Зоя Тихоновна</t>
   </si>
   <si>
@@ -401,6 +417,9 @@
     <t>Дорофеев Кондрат Альбертович</t>
   </si>
   <si>
+    <t>Ефимов Сергей Матвеевич</t>
+  </si>
+  <si>
     <t>Воробьёва Ольга Агафоновна</t>
   </si>
   <si>
@@ -410,6 +429,9 @@
     <t>Никифорова Галина Лаврентьевна</t>
   </si>
   <si>
+    <t>Елисеев Борис Мартынович</t>
+  </si>
+  <si>
     <t>Блинов Даниил Демьянович</t>
   </si>
   <si>
@@ -419,66 +441,57 @@
     <t>Панфилов Ефим Михаилович</t>
   </si>
   <si>
+    <t>Фролов Георгий Владимирович</t>
+  </si>
+  <si>
     <t>Елисеева Элеонора Агафоновна</t>
   </si>
   <si>
+    <t>Пахомов Максим Андреевич</t>
+  </si>
+  <si>
     <t>Коновалов Роман Викторович</t>
   </si>
   <si>
+    <t>Карпов Михаил Валерьевич</t>
+  </si>
+  <si>
+    <t>Емельянов Олег Иванович</t>
+  </si>
+  <si>
     <t>Николаева Ираида Геннадьевна</t>
   </si>
   <si>
     <t>Мясников Владимир Иванович</t>
   </si>
   <si>
-    <t>Елисеев Борис Мартынович</t>
-  </si>
-  <si>
-    <t>Ершова Валентина Олеговна</t>
-  </si>
-  <si>
-    <t>Емельянов Олег Иванович</t>
-  </si>
-  <si>
-    <t>Фролов Георгий Владимирович</t>
-  </si>
-  <si>
-    <t>Ефимов Сергей Матвеевич</t>
-  </si>
-  <si>
-    <t>Пахомов Максим Андреевич</t>
-  </si>
-  <si>
-    <t>Карпов Михаил Валерьевич</t>
-  </si>
-  <si>
     <t>Название должности</t>
   </si>
   <si>
+    <t>Директор</t>
+  </si>
+  <si>
+    <t>Начальник отдела</t>
+  </si>
+  <si>
+    <t>Менеджер</t>
+  </si>
+  <si>
+    <t>Секретарь</t>
+  </si>
+  <si>
+    <t>Стажер</t>
+  </si>
+  <si>
+    <t>Водитель</t>
+  </si>
+  <si>
+    <t>Охранник</t>
+  </si>
+  <si>
     <t>Оклад</t>
   </si>
   <si>
-    <t>Директор</t>
-  </si>
-  <si>
-    <t>Менеджер</t>
-  </si>
-  <si>
-    <t>Секретарь</t>
-  </si>
-  <si>
-    <t>Начальник отдела</t>
-  </si>
-  <si>
-    <t>Стажер</t>
-  </si>
-  <si>
-    <t>Водитель</t>
-  </si>
-  <si>
-    <t>Охранник</t>
-  </si>
-  <si>
     <t>ФИО</t>
   </si>
   <si>
@@ -491,6 +504,12 @@
     <t>Гориславский Ярослав Олегович</t>
   </si>
   <si>
+    <t>Капшуков Глеб Фомич</t>
+  </si>
+  <si>
+    <t>Севастьянов Егор Николаевич</t>
+  </si>
+  <si>
     <t>Ямалетдинов Иосиф Потапович</t>
   </si>
   <si>
@@ -503,6 +522,12 @@
     <t>Рашет Ярослав Пахомович</t>
   </si>
   <si>
+    <t>Таланова Екатерина Давидовна</t>
+  </si>
+  <si>
+    <t>Сулимов Алексей Платонович</t>
+  </si>
+  <si>
     <t>Смотрова Екатерина Геннадиевна</t>
   </si>
   <si>
@@ -518,64 +543,79 @@
     <t>Гольдин Артур Серафимович</t>
   </si>
   <si>
-    <t>Капшуков Глеб Фомич</t>
-  </si>
-  <si>
-    <t>Севастьянов Егор Николаевич</t>
-  </si>
-  <si>
-    <t>Таланова Екатерина Давидовна</t>
-  </si>
-  <si>
-    <t>Сулимов Алексей Платонович</t>
-  </si>
-  <si>
     <t>Зарплата</t>
   </si>
   <si>
     <t>Премия</t>
   </si>
   <si>
+    <t>Номер филиала</t>
+  </si>
+  <si>
     <t>Оклад филиал 1</t>
   </si>
   <si>
     <t>Оклад филиал 2</t>
   </si>
   <si>
-    <t>Номер филиала</t>
+    <t>Кузьмина Полина Василиевна</t>
+  </si>
+  <si>
+    <t>Снаткин Михаил Андреевич</t>
+  </si>
+  <si>
+    <t>Сабитова Александра Федоровна</t>
+  </si>
+  <si>
+    <t>Кулигина Оксана  Семеновна</t>
+  </si>
+  <si>
+    <t>Захарьин Константин Епифанович</t>
+  </si>
+  <si>
+    <t>Янчурова Марина Якововна</t>
+  </si>
+  <si>
+    <t>Козланюк Юрий Игоревич</t>
+  </si>
+  <si>
+    <t>Лебединский Леонид Алексеевич</t>
   </si>
   <si>
     <t>Яндукина Ксения Петровна</t>
   </si>
   <si>
-    <t>Лебединский Леонид Алексеевич</t>
-  </si>
-  <si>
-    <t>Янчурова Марина Якововна</t>
-  </si>
-  <si>
     <t>Осинцев Павел Матвеевич</t>
   </si>
   <si>
-    <t>Кулигина Оксана  Семеновна</t>
-  </si>
-  <si>
-    <t>Снаткин Михаил Андреевич</t>
-  </si>
-  <si>
     <t>Яцышин Валерий Богданович</t>
   </si>
   <si>
-    <t>Захарьин Константин Епифанович</t>
-  </si>
-  <si>
-    <t>Козланюк Юрий Игоревич</t>
-  </si>
-  <si>
-    <t>Сабитова Александра Федоровна</t>
-  </si>
-  <si>
-    <t>Кузьмина Полина Василиевна</t>
+    <t>Без лишних пробелов</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>В формате ФАМИЛИЯ имя</t>
+  </si>
+  <si>
+    <t>Первая буква имени</t>
+  </si>
+  <si>
+    <t>Первая буква отчества</t>
+  </si>
+  <si>
+    <t>В формате Фамилия И.О.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ершова      Валентина   Олеговна     </t>
   </si>
   <si>
     <t>Ершова</t>
@@ -587,6 +627,21 @@
     <t>Олеговна</t>
   </si>
   <si>
+    <t>ЕРШОВА валентина</t>
+  </si>
+  <si>
+    <t>В</t>
+  </si>
+  <si>
+    <t>О</t>
+  </si>
+  <si>
+    <t>Ершова В.О.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Вишнякова  Зоя    Тихоновна  </t>
+  </si>
+  <si>
     <t>Вишнякова</t>
   </si>
   <si>
@@ -596,6 +651,21 @@
     <t>Тихоновна</t>
   </si>
   <si>
+    <t>ВИШНЯКОВА зоя</t>
+  </si>
+  <si>
+    <t>З</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>Вишнякова З.Т.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Кудряшов  Герман      Валерьянович   </t>
+  </si>
+  <si>
     <t>Кудряшов</t>
   </si>
   <si>
@@ -605,131 +675,219 @@
     <t>Валерьянович</t>
   </si>
   <si>
-    <t xml:space="preserve">  Ершова      Валентина   Олеговна     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Вишнякова  Зоя    Тихоновна  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Кудряшов  Герман      Валерьянович   </t>
+    <t>КУДРЯШОВ герман</t>
+  </si>
+  <si>
+    <t>Г</t>
+  </si>
+  <si>
+    <t>Кудряшов Г.В.</t>
   </si>
   <si>
     <t xml:space="preserve">    Дорофеев     Кондрат    Альбертович    </t>
   </si>
   <si>
+    <t>Дорофеев</t>
+  </si>
+  <si>
+    <t>Кондрат</t>
+  </si>
+  <si>
+    <t>Альбертович</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Ефимов   Сергей Матвеевич     </t>
   </si>
   <si>
+    <t>Ефимов</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>Матвеевич</t>
+  </si>
+  <si>
     <t xml:space="preserve">     Воробьёва  Ольга    Агафоновна     </t>
   </si>
   <si>
+    <t>Воробьёва</t>
+  </si>
+  <si>
+    <t>Ольга</t>
+  </si>
+  <si>
+    <t>Агафоновна</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Брагин   Эдуард     Викторович   </t>
   </si>
   <si>
+    <t>Брагин</t>
+  </si>
+  <si>
+    <t>Эдуард</t>
+  </si>
+  <si>
+    <t>Викторович</t>
+  </si>
+  <si>
     <t xml:space="preserve">     Никифорова   Галина      Лаврентьевна</t>
   </si>
   <si>
+    <t>Никифорова</t>
+  </si>
+  <si>
+    <t>Галина</t>
+  </si>
+  <si>
+    <t>Лаврентьевна</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Елисеев   Борис      Мартынович </t>
   </si>
   <si>
+    <t>Елисеев</t>
+  </si>
+  <si>
+    <t>Борис</t>
+  </si>
+  <si>
+    <t>Мартынович</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Блинов      Даниил Демьянович    </t>
   </si>
   <si>
+    <t>Блинов</t>
+  </si>
+  <si>
+    <t>Даниил</t>
+  </si>
+  <si>
+    <t>Демьянович</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Белов      Станислав Егорович    </t>
   </si>
   <si>
+    <t>Белов</t>
+  </si>
+  <si>
+    <t>Станислав</t>
+  </si>
+  <si>
+    <t>Егорович</t>
+  </si>
+  <si>
     <t xml:space="preserve">     Панфилов    Ефим   Михаилович </t>
   </si>
   <si>
+    <t>Панфилов</t>
+  </si>
+  <si>
+    <t>Ефим</t>
+  </si>
+  <si>
+    <t>Михаилович</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Фролов  Георгий    Владимирович</t>
   </si>
   <si>
+    <t>Фролов</t>
+  </si>
+  <si>
+    <t>Георгий</t>
+  </si>
+  <si>
+    <t>Владимирович</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Елисеева      Элеонора      Агафоновна  </t>
   </si>
   <si>
+    <t>Елисеева</t>
+  </si>
+  <si>
+    <t>Элеонора</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Пахомов  Максим     Андреевич  </t>
   </si>
   <si>
+    <t>Пахомов</t>
+  </si>
+  <si>
+    <t>Максим</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Коновалов  Роман  Викторович   </t>
   </si>
   <si>
+    <t>Коновалов</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Карпов Михаил    Валерьевич  </t>
   </si>
   <si>
+    <t>Карпов</t>
+  </si>
+  <si>
+    <t>Михаил</t>
+  </si>
+  <si>
+    <t>Валерьевич</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Емельянов      Олег   Иванович     </t>
   </si>
   <si>
+    <t>Емельянов</t>
+  </si>
+  <si>
+    <t>Олег</t>
+  </si>
+  <si>
+    <t>Иванович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Николаева  Ираида      Геннадьевна </t>
+  </si>
+  <si>
+    <t>Николаева</t>
+  </si>
+  <si>
+    <t>Ираида</t>
+  </si>
+  <si>
+    <t>Геннадьевна</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Мясников  Владимир    Иванович     </t>
   </si>
   <si>
-    <t>Без лишних пробелов</t>
-  </si>
-  <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Отчество</t>
-  </si>
-  <si>
-    <t>Первая буква имени</t>
-  </si>
-  <si>
-    <t>Первая буква отчества</t>
-  </si>
-  <si>
-    <t>В формате Фамилия И.О.</t>
-  </si>
-  <si>
-    <t>В формате ФАМИЛИЯ имя</t>
-  </si>
-  <si>
-    <t>ЕРШОВА валентина</t>
-  </si>
-  <si>
-    <t>В</t>
-  </si>
-  <si>
-    <t>О</t>
-  </si>
-  <si>
-    <t>Ершова В.О.</t>
-  </si>
-  <si>
-    <t>ВИШНЯКОВА зоя</t>
-  </si>
-  <si>
-    <t>З</t>
-  </si>
-  <si>
-    <t>Т</t>
-  </si>
-  <si>
-    <t>Вишнякова З.Т.</t>
-  </si>
-  <si>
-    <t>КУДРЯШОВ герман</t>
-  </si>
-  <si>
-    <t>Г</t>
-  </si>
-  <si>
-    <t>Кудряшов Г.В.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Николаева  Ираида      Геннадьевна </t>
+    <t>Мясников</t>
+  </si>
+  <si>
+    <t>Владимир</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,7 +945,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -797,12 +955,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,14 +1104,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -987,33 +1138,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1031,35 +1173,34 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2192,9 +2333,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2232,7 +2373,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2338,7 +2479,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2514,11 +2655,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2533,772 +2674,865 @@
   <dimension ref="A9:J66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.1328125" customWidth="1"/>
-    <col min="4" max="4" width="17.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.3984375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="64.265625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="64.28515625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:10" ht="20.350000000000001" x14ac:dyDescent="0.45">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:10" ht="20.45">
+      <c r="A9" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="H9" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.95">
+      <c r="A10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="H9" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.85" x14ac:dyDescent="0.45">
-      <c r="A10" s="20" t="s">
+      <c r="B10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="14" t="str">
+        <f>VLOOKUP(A11,$H$10:$I$66,2,0)</f>
+        <v>Ноутбук ASUS X55A-SX208D,  2048Mb, 320Gb, DVD-SMulti, Intel HD, BT, WiFi, WEB-Cam, noOS, 2.6kg, Black</v>
+      </c>
+      <c r="D11" s="15">
+        <f>VLOOKUP(C11,$I$10:$J$66,2,0)</f>
+        <v>20475</v>
+      </c>
+      <c r="E11" s="13">
+        <f>PRODUCT(D11,B11)</f>
+        <v>40950</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="9">
+        <v>42445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="14" t="str">
+        <f t="shared" ref="C12:C20" si="0">VLOOKUP(A12,$H$10:$I$66,2,0)</f>
+        <v>Ноутбук HP ProBook 4540s + сумка  15.6"HD, Pentium DC 2020M,  6Gb, 750Gb, DVD-SMulti, HD7650 2048M, WiFi, BT, WEB-Cam2MP, noOS, 2.4kg, + bag</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" ref="D12:D20" si="1">VLOOKUP(C12,$I$10:$J$66,2,0)</f>
+        <v>34255</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" ref="E12:E21" si="2">PRODUCT(D12,B12)</f>
+        <v>68510</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="9">
+        <v>48360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Ноутбук ASUS PU500CA  15.6"HD, Intel Core i3 3217U, 4096Mb, 500Gb, No ODD, Intel HD4000, BT, WiFi, WEB-Cam, noOS, 1.9kg, Black</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" si="1"/>
+        <v>37375</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="2"/>
+        <v>74750</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="9">
+        <v>37375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Ноутбук ASUS X75VC-TY014D,  4096Mb, 500Gb, DVD-SMulti, GF GT720M 2048M, WiFi, BT, WEB-Cam, noOS, 3kg, White</v>
+      </c>
+      <c r="D14" s="15">
+        <f t="shared" si="1"/>
+        <v>32695</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="2"/>
+        <v>163475</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="9">
+        <v>19305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Ноутбук ASUS X55A-SX208D,  2048Mb, 320Gb, DVD-SMulti, Intel HD, BT, WiFi, WEB-Cam, noOS, 2.6kg, Black</v>
+      </c>
+      <c r="D15" s="15">
+        <f t="shared" si="1"/>
+        <v>20475</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="2"/>
+        <v>102375</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="9">
+        <v>19370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="C16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Сумка для ноутбука 15.6" HQ-Tech EE-1516H </v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" si="1"/>
+        <v>910</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="2"/>
+        <v>910</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="9">
+        <v>19955</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Сумка для ноутбука 15.6" G-Cube Paint Splash  Handle-Violet</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" si="1"/>
+        <v>1352</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="2"/>
+        <v>1352</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="9">
+        <v>22165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="C18" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Сумка для ноутбука 13.3" HQ-Tech  Black-Brown, нейлон, женская, Damask Nylon</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" si="1"/>
+        <v>910</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="2"/>
+        <v>2730</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="9">
+        <v>30745</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Ноутбук ASUS X502CA-XX048D,  4096Mb, 500Gb, No ODD, Intel HD, BT, WiFi, WEB-Cam1.3MP, noOS, 1.8kg, White</v>
+      </c>
+      <c r="D19" s="15">
+        <f t="shared" si="1"/>
+        <v>19955</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="2"/>
+        <v>39910</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="9">
+        <v>34775</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ноутбук ASUS X550DP-XX001D, 4GB DDR3 1600,750GB,AMD HD8670M 2GB,DVD-SM,VGA,HDMI,GLAN,WiFi,BT,WC HD,USB3.0,USB2.0,CR2in1,4cell 3000mAh,DOS,2.26kg,Dark Gray </v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" si="1"/>
+        <v>35945</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="2"/>
+        <v>71890</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="9">
+        <v>35945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A21" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="13">
+        <f>SUM(E11:E20)</f>
+        <v>566852</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="9">
+        <v>38025</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="37.5" customHeight="1">
+      <c r="H22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="9">
+        <v>20475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="37.5" customHeight="1">
+      <c r="H23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="9">
+        <v>29575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="37.5" customHeight="1">
+      <c r="H24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="9">
+        <v>32695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="37.5" customHeight="1">
+      <c r="H25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="9">
+        <v>32695</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="37.5" customHeight="1">
+      <c r="H26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="9">
+        <v>37050</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="37.5" customHeight="1">
+      <c r="H27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="9">
+        <v>37050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="37.5" customHeight="1">
+      <c r="H28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="9">
+        <v>22815</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="37.5" customHeight="1">
+      <c r="H29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="9">
+        <v>27430</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="37.5" customHeight="1">
+      <c r="H30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="9">
+        <v>20150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="37.5" customHeight="1">
+      <c r="H31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="9">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="37.5" customHeight="1">
+      <c r="H32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="9">
+        <v>35100</v>
+      </c>
+    </row>
+    <row r="33" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="9">
+        <v>39130</v>
+      </c>
+    </row>
+    <row r="34" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H34" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" s="9">
+        <v>26260</v>
+      </c>
+    </row>
+    <row r="35" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" s="9">
+        <v>38935</v>
+      </c>
+    </row>
+    <row r="36" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="9">
+        <v>38675</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H37" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J37" s="9">
+        <v>38870</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H38" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38" s="9">
+        <v>40040</v>
+      </c>
+    </row>
+    <row r="39" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="9">
+        <v>34255</v>
+      </c>
+    </row>
+    <row r="40" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H40" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" s="9">
+        <v>31915</v>
+      </c>
+    </row>
+    <row r="41" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H41" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J41" s="9">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="42" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H42" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J42" s="9">
+        <v>37505</v>
+      </c>
+    </row>
+    <row r="43" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H43" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J43" s="9">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="44" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H44" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44" s="9">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="45" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H45" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J45" s="9">
+        <v>682.5</v>
+      </c>
+    </row>
+    <row r="46" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H46" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J46" s="9">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="47" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H47" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47" s="9">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="48" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H48" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J48" s="9">
+        <v>1397.5</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H49" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J49" s="9">
+        <v>1397.5</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H50" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J50" s="9">
+        <v>1511.25</v>
+      </c>
+    </row>
+    <row r="51" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H51" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J51" s="9">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H52" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J52" s="9">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="53" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H53" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J53" s="9">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="54" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H54" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J54" s="9">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="55" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H55" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J55" s="9">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="56" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H56" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J56" s="9">
+        <v>1267.5</v>
+      </c>
+    </row>
+    <row r="57" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H57" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J57" s="9">
+        <v>1202.5</v>
+      </c>
+    </row>
+    <row r="58" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H58" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J58" s="9">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="59" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H59" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J59" s="9">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="60" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H60" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J60" s="9">
+        <v>1397.5</v>
+      </c>
+    </row>
+    <row r="61" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H61" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J61" s="9">
+        <v>1007.5</v>
+      </c>
+    </row>
+    <row r="62" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H62" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J62" s="9">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="63" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H63" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J63" s="9">
+        <v>877.5</v>
+      </c>
+    </row>
+    <row r="64" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H64" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J64" s="9">
+        <v>1592.5</v>
+      </c>
+    </row>
+    <row r="65" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H65" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J65" s="9">
+        <v>1527.5</v>
+      </c>
+    </row>
+    <row r="66" spans="8:10" ht="37.5" customHeight="1">
+      <c r="H66" s="7" t="str">
+        <f t="shared" ref="H66" ca="1" si="3">CHAR(CODE("A")+RANDBETWEEN(0,15))&amp;TEXT(RANDBETWEEN(0,999),"000")</f>
+        <v>B123</v>
+      </c>
+      <c r="I66" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="16">
-        <v>2</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="17"/>
-      <c r="H11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="10">
-        <v>42445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="16">
-        <v>2</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="17"/>
-      <c r="H12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" s="10">
-        <v>48360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="16">
-        <v>2</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="17"/>
-      <c r="H13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="10">
-        <v>37375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="16">
-        <v>5</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="17"/>
-      <c r="H14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="10">
-        <v>19305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="16">
-        <v>5</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="17"/>
-      <c r="H15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J15" s="10">
-        <v>19370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="17"/>
-      <c r="H16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="10">
-        <v>19955</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="16">
-        <v>1</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="17"/>
-      <c r="H17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="10">
-        <v>22165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="16">
-        <v>3</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="17"/>
-      <c r="H18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="10">
-        <v>30745</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="16">
-        <v>2</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="17"/>
-      <c r="H19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" s="10">
-        <v>34775</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="16">
-        <v>2</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="17"/>
-      <c r="H20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="10">
-        <v>35945</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="23"/>
-      <c r="H21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J21" s="10">
-        <v>38025</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J22" s="10">
-        <v>20475</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J23" s="10">
-        <v>29575</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J24" s="10">
-        <v>32695</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J25" s="10">
-        <v>32695</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J26" s="10">
-        <v>37050</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J27" s="10">
-        <v>37050</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J28" s="10">
-        <v>22815</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J29" s="10">
-        <v>27430</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J30" s="10">
-        <v>20150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H31" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="J31" s="10">
-        <v>19500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H32" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J32" s="10">
-        <v>35100</v>
-      </c>
-    </row>
-    <row r="33" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J33" s="10">
-        <v>39130</v>
-      </c>
-    </row>
-    <row r="34" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H34" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="J34" s="10">
-        <v>26260</v>
-      </c>
-    </row>
-    <row r="35" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H35" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="J35" s="10">
-        <v>38935</v>
-      </c>
-    </row>
-    <row r="36" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H36" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J36" s="10">
-        <v>38675</v>
-      </c>
-    </row>
-    <row r="37" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H37" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="J37" s="10">
-        <v>38870</v>
-      </c>
-    </row>
-    <row r="38" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H38" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J38" s="10">
-        <v>40040</v>
-      </c>
-    </row>
-    <row r="39" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H39" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J39" s="10">
-        <v>34255</v>
-      </c>
-    </row>
-    <row r="40" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H40" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="J40" s="10">
-        <v>31915</v>
-      </c>
-    </row>
-    <row r="41" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H41" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="J41" s="10">
-        <v>43940</v>
-      </c>
-    </row>
-    <row r="42" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H42" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="J42" s="10">
-        <v>37505</v>
-      </c>
-    </row>
-    <row r="43" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H43" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J43" s="10">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="44" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H44" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J44" s="10">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="45" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H45" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J45" s="10">
-        <v>682.5</v>
-      </c>
-    </row>
-    <row r="46" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H46" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J46" s="10">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="47" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H47" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J47" s="10">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="48" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H48" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J48" s="10">
-        <v>1397.5</v>
-      </c>
-    </row>
-    <row r="49" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H49" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J49" s="10">
-        <v>1397.5</v>
-      </c>
-    </row>
-    <row r="50" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H50" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J50" s="10">
-        <v>1511.25</v>
-      </c>
-    </row>
-    <row r="51" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H51" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J51" s="10">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="52" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H52" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J52" s="10">
-        <v>4940</v>
-      </c>
-    </row>
-    <row r="53" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H53" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J53" s="10">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="54" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H54" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J54" s="10">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="55" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H55" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J55" s="10">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="56" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H56" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="J56" s="10">
-        <v>1267.5</v>
-      </c>
-    </row>
-    <row r="57" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H57" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J57" s="10">
-        <v>1202.5</v>
-      </c>
-    </row>
-    <row r="58" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H58" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J58" s="10">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="59" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H59" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J59" s="10">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="60" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H60" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J60" s="10">
-        <v>1397.5</v>
-      </c>
-    </row>
-    <row r="61" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H61" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J61" s="10">
-        <v>1007.5</v>
-      </c>
-    </row>
-    <row r="62" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H62" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J62" s="10">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="63" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H63" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J63" s="10">
-        <v>877.5</v>
-      </c>
-    </row>
-    <row r="64" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H64" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J64" s="10">
-        <v>1592.5</v>
-      </c>
-    </row>
-    <row r="65" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H65" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J65" s="10">
-        <v>1527.5</v>
-      </c>
-    </row>
-    <row r="66" spans="8:10" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H66" s="8" t="str">
-        <f t="shared" ref="H66" ca="1" si="0">CHAR(CODE("A")+RANDBETWEEN(0,15))&amp;TEXT(RANDBETWEEN(0,999),"000")</f>
-        <v>B233</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J66" s="10">
+      <c r="J66" s="9">
         <v>780</v>
       </c>
     </row>
@@ -3321,16 +3555,18 @@
   </sheetPr>
   <dimension ref="A9:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="35.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>117</v>
       </c>
@@ -3340,214 +3576,274 @@
       <c r="C9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="H9" s="46"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H9" s="39"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B10" s="3">
         <v>91</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="G10" s="24">
+      <c r="C10" s="3">
+        <f>VLOOKUP(B10,$G$9:$H$13,2,1)</f>
+        <v>5</v>
+      </c>
+      <c r="G10" s="18">
         <v>0</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11" s="3">
         <v>42</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="G11" s="24">
+      <c r="C11" s="3">
+        <f t="shared" ref="C11:C29" si="0">VLOOKUP(B11,$G$9:$H$13,2,1)</f>
+        <v>3</v>
+      </c>
+      <c r="G11" s="18">
         <v>40</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" s="3">
         <v>24</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="G12" s="24">
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G12" s="18">
         <v>75</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" s="3">
         <v>91</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="G13" s="24">
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G13" s="18">
         <v>90</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B14" s="3">
         <v>30</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B15" s="3">
         <v>78</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B16" s="3">
         <v>89</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B17" s="3">
         <v>21</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B18" s="3">
         <v>97</v>
       </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B19" s="3">
         <v>57</v>
       </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B20" s="3">
         <v>100</v>
       </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B21" s="3">
         <v>66</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B22" s="3">
         <v>89</v>
       </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B23" s="3">
         <v>65</v>
       </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B24" s="3">
         <v>90</v>
       </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B25" s="3">
         <v>95</v>
       </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B26" s="3">
         <v>34</v>
       </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B27" s="3">
         <v>41</v>
       </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B28" s="3">
         <v>70</v>
       </c>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B29" s="3">
         <v>29</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3565,213 +3861,260 @@
   </sheetPr>
   <dimension ref="A9:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="33.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" customWidth="1"/>
-    <col min="3" max="3" width="18.59765625" style="1" customWidth="1"/>
-    <col min="4" max="8" width="18.59765625" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
+    <col min="4" max="8" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="D9" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="G9" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1">
+      <c r="A10" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="21">
+        <v>100000</v>
+      </c>
+      <c r="C10" s="21">
+        <v>80000</v>
+      </c>
+      <c r="D10" s="21">
+        <v>50000</v>
+      </c>
+      <c r="E10" s="21">
+        <v>30000</v>
+      </c>
+      <c r="F10" s="21">
+        <v>10000</v>
+      </c>
+      <c r="G10" s="21">
+        <v>35000</v>
+      </c>
+      <c r="H10" s="21">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="C14" s="25">
+        <f>HLOOKUP(B14,$A$9:$H$10,2,0)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="25">
+        <f t="shared" ref="C15:C28" si="0">HLOOKUP(B15,$A$9:$H$10,2,0)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="25">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="25">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="25">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="25">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="25">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="25">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="C22" s="25">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="25">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="25">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="25">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="25">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="25">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="27">
-        <v>100000</v>
-      </c>
-      <c r="C10" s="27">
-        <v>80000</v>
-      </c>
-      <c r="D10" s="27">
-        <v>50000</v>
-      </c>
-      <c r="E10" s="27">
-        <v>30000</v>
-      </c>
-      <c r="F10" s="27">
-        <v>10000</v>
-      </c>
-      <c r="G10" s="27">
+      <c r="C28" s="25">
+        <f t="shared" si="0"/>
         <v>35000</v>
       </c>
-      <c r="H10" s="27">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="31"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="31"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="31"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="31"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="31"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="31"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="31"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="31"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="31"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="31"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="31"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="31"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3788,10 +4131,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="33.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.73046875" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3807,228 +4150,320 @@
   <dimension ref="A14:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="33.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:5" s="10" customFormat="1">
+      <c r="A14" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" s="35" t="s">
+      <c r="C14" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="28">
         <v>50000</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D15" s="34">
+        <f>IF(C15&lt;15000,15000,C15)</f>
+        <v>50000</v>
+      </c>
+      <c r="E15" s="23">
+        <f>IF(D15=$D$15, $D$15*0.2, IF(D15=$D$20, 0, 5000))</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="28">
         <v>50000</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D16" s="34">
+        <f t="shared" ref="D16:D29" si="0">IF(C16&lt;15000,15000,C16)</f>
+        <v>50000</v>
+      </c>
+      <c r="E16" s="23">
+        <f t="shared" ref="E16:E29" si="1">IF(D16=$D$15, $D$15*0.2, IF(D16=$D$20, 0, 5000))</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="28">
+        <v>80000</v>
+      </c>
+      <c r="D17" s="34">
+        <f>IF(C17&lt;15000,15000,C17)</f>
+        <v>80000</v>
+      </c>
+      <c r="E17" s="23">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="28">
+        <v>100000</v>
+      </c>
+      <c r="D18" s="34">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="E18" s="23">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="28">
+        <v>80000</v>
+      </c>
+      <c r="D19" s="34">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="E19" s="23">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C20" s="28">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="34">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="E20" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="28">
         <v>80000</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="34">
-        <v>100000</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="34">
+      <c r="D21" s="34">
+        <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="34">
-        <v>10000</v>
-      </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="34">
-        <v>80000</v>
-      </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E21" s="23">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="34">
+        <v>148</v>
+      </c>
+      <c r="C22" s="28">
         <v>35000</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D22" s="34">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="E22" s="23">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="28">
         <v>30000</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D23" s="34">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="E23" s="23">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="34">
+        <v>146</v>
+      </c>
+      <c r="C24" s="28">
         <v>10000</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D24" s="34">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="E24" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="34">
+        <v>146</v>
+      </c>
+      <c r="C25" s="28">
         <v>10000</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D25" s="34">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="E25" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="28">
         <v>50000</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D26" s="34">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="E26" s="23">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="28">
         <v>50000</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D27" s="34">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="E27" s="23">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="28">
         <v>50000</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D28" s="34">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="E28" s="23">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="34">
+        <v>147</v>
+      </c>
+      <c r="C29" s="28">
         <v>35000</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
+      <c r="D29" s="34">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="E29" s="23">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4044,418 +4479,498 @@
   </sheetPr>
   <dimension ref="A9:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="35.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.59765625" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="38" t="s">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="23">
+        <v>1</v>
+      </c>
+      <c r="D10" s="25">
+        <f>VLOOKUP(B10,$F$9:$H$16, IF(C10&gt;1,3,2),0)</f>
+        <v>10000</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="29" t="s">
+      <c r="G10" s="21">
+        <v>100000</v>
+      </c>
+      <c r="H10" s="21">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B11" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1</v>
+      </c>
+      <c r="D11" s="25">
+        <f t="shared" ref="D11:D35" si="0">VLOOKUP(B11,$F$9:$H$16, IF(C11&gt;1,3,2),0)</f>
+        <v>80000</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="21">
+        <v>80000</v>
+      </c>
+      <c r="H11" s="21">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="23">
+        <v>2</v>
+      </c>
+      <c r="D12" s="25">
+        <f t="shared" si="0"/>
+        <v>53000</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="21">
+        <v>50000</v>
+      </c>
+      <c r="H12" s="21">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1</v>
+      </c>
+      <c r="D13" s="25">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="21">
+        <v>30000</v>
+      </c>
+      <c r="H13" s="21">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="23">
+        <v>1</v>
+      </c>
+      <c r="D14" s="25">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="21">
+        <v>10000</v>
+      </c>
+      <c r="H14" s="21">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C15" s="23">
         <v>1</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="F10" s="24" t="s">
+      <c r="D15" s="25">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="21">
+        <v>35000</v>
+      </c>
+      <c r="H15" s="21">
+        <v>38150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="23">
+        <v>2</v>
+      </c>
+      <c r="D16" s="25">
+        <f t="shared" si="0"/>
+        <v>110000</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="21">
+        <v>35000</v>
+      </c>
+      <c r="H16" s="21">
+        <v>31850</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="23">
+        <v>1</v>
+      </c>
+      <c r="D17" s="25">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="23">
+        <v>1</v>
+      </c>
+      <c r="D18" s="25">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="23">
+        <v>1</v>
+      </c>
+      <c r="D19" s="25">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="23">
+        <v>1</v>
+      </c>
+      <c r="D20" s="25">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="23">
+        <v>2</v>
+      </c>
+      <c r="D21" s="25">
+        <f t="shared" si="0"/>
+        <v>38150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="23">
+        <v>2</v>
+      </c>
+      <c r="D22" s="25">
+        <f t="shared" si="0"/>
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="25">
+        <f t="shared" si="0"/>
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="G10" s="27">
-        <v>100000</v>
-      </c>
-      <c r="H10" s="27">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="29" t="s">
+      <c r="C24" s="23">
+        <v>2</v>
+      </c>
+      <c r="D24" s="25">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="23">
+        <v>2</v>
+      </c>
+      <c r="D25" s="25">
+        <f t="shared" si="0"/>
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="23">
+        <v>1</v>
+      </c>
+      <c r="D26" s="25">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="23">
+        <v>2</v>
+      </c>
+      <c r="D27" s="25">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="23">
+        <v>1</v>
+      </c>
+      <c r="D28" s="25">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="23">
+        <v>2</v>
+      </c>
+      <c r="D29" s="25">
+        <f t="shared" si="0"/>
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="23">
+        <v>2</v>
+      </c>
+      <c r="D30" s="25">
+        <f t="shared" si="0"/>
+        <v>31850</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B31" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="23">
+        <v>1</v>
+      </c>
+      <c r="D31" s="25">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="23">
+        <v>1</v>
+      </c>
+      <c r="D32" s="25">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="23">
+        <v>1</v>
+      </c>
+      <c r="D33" s="25">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="23">
+        <v>2</v>
+      </c>
+      <c r="D34" s="25">
+        <f t="shared" si="0"/>
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C35" s="23">
         <v>1</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="F11" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="27">
-        <v>80000</v>
-      </c>
-      <c r="H11" s="27">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="36">
-        <v>2</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="F12" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="27">
-        <v>50000</v>
-      </c>
-      <c r="H12" s="27">
-        <v>53000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="36">
-        <v>1</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="F13" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" s="27">
-        <v>30000</v>
-      </c>
-      <c r="H13" s="27">
-        <v>32400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="36">
-        <v>1</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="F14" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="27">
+      <c r="D35" s="25">
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="H14" s="27">
-        <v>9700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="36">
-        <v>1</v>
-      </c>
-      <c r="D15" s="39"/>
-      <c r="F15" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15" s="27">
-        <v>35000</v>
-      </c>
-      <c r="H15" s="27">
-        <v>38150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="36">
-        <v>2</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="F16" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="27">
-        <v>35000</v>
-      </c>
-      <c r="H16" s="27">
-        <v>31850</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="36">
-        <v>1</v>
-      </c>
-      <c r="D17" s="39"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="36">
-        <v>1</v>
-      </c>
-      <c r="D18" s="39"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="36">
-        <v>1</v>
-      </c>
-      <c r="D19" s="39"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="36">
-        <v>1</v>
-      </c>
-      <c r="D20" s="39"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="36">
-        <v>2</v>
-      </c>
-      <c r="D21" s="39"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="36">
-        <v>2</v>
-      </c>
-      <c r="D22" s="39"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="36">
-        <v>2</v>
-      </c>
-      <c r="D23" s="39"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="36">
-        <v>2</v>
-      </c>
-      <c r="D24" s="39"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="36">
-        <v>2</v>
-      </c>
-      <c r="D25" s="39"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="36">
-        <v>1</v>
-      </c>
-      <c r="D26" s="39"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="36">
-        <v>2</v>
-      </c>
-      <c r="D27" s="39"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="36">
-        <v>1</v>
-      </c>
-      <c r="D28" s="39"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" s="36">
-        <v>2</v>
-      </c>
-      <c r="D29" s="39"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="36">
-        <v>2</v>
-      </c>
-      <c r="D30" s="39"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="36">
-        <v>1</v>
-      </c>
-      <c r="D31" s="39"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="36">
-        <v>1</v>
-      </c>
-      <c r="D32" s="39"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="36">
-        <v>1</v>
-      </c>
-      <c r="D33" s="39"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="36">
-        <v>2</v>
-      </c>
-      <c r="D34" s="39"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="36">
-        <v>1</v>
-      </c>
-      <c r="D35" s="39"/>
     </row>
   </sheetData>
-  <sortState ref="A10:D35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D35">
     <sortCondition ref="D10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4470,357 +4985,715 @@
   </sheetPr>
   <dimension ref="A13:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="38.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.1328125" customWidth="1"/>
-    <col min="3" max="5" width="21.59765625" customWidth="1"/>
-    <col min="6" max="6" width="26.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="G16" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="H16" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="I16" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="E13" s="40" t="s">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="B17" s="23" t="str">
+        <f>TRIM(A17)</f>
+        <v>Дорофеев Кондрат Альбертович</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="23" t="str">
+        <f>UPPER(C17)&amp;LOWER(D17)</f>
+        <v>ДОРОФЕЕВкондрат</v>
+      </c>
+      <c r="G17" s="23" t="str">
+        <f>LEFT(D17,1)</f>
+        <v>К</v>
+      </c>
+      <c r="H17" s="23" t="str">
+        <f>LEFT(E17,1)</f>
+        <v>А</v>
+      </c>
+      <c r="I17" s="23" t="str">
+        <f>_xlfn.CONCAT(C17, " ", G17, ".", H17, ".")</f>
+        <v>Дорофеев К.А.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="G13" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="I13" s="40" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14" s="41" t="s">
+      <c r="B18" s="23" t="str">
+        <f>TRIM(A18)</f>
+        <v>Ефимов Сергей Матвеевич</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="D18" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="E18" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="F18" s="23" t="str">
+        <f t="shared" ref="F18:F33" si="0">UPPER(C18)&amp;LOWER(D18)</f>
+        <v>ЕФИМОВсергей</v>
+      </c>
+      <c r="G18" s="23" t="str">
+        <f t="shared" ref="G18:G33" si="1">LEFT(D18,1)</f>
+        <v>С</v>
+      </c>
+      <c r="H18" s="23" t="str">
+        <f t="shared" ref="H18:H33" si="2">LEFT(E18,1)</f>
+        <v>М</v>
+      </c>
+      <c r="I18" s="23" t="str">
+        <f t="shared" ref="I18:I33" si="3">_xlfn.CONCAT(C18, " ", G18, ".", H18, ".")</f>
+        <v>Ефимов С.М.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="23" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="41" t="s">
+      <c r="B19" s="23" t="str">
+        <f>TRIM(A19)</f>
+        <v>Воробьёва Ольга Агафоновна</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="D19" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="E19" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="F19" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ВОРОБЬЁВАольга</v>
+      </c>
+      <c r="G19" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>О</v>
+      </c>
+      <c r="H19" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>А</v>
+      </c>
+      <c r="I19" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>Воробьёва О.А.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="23" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="F16" s="41" t="s">
+      <c r="B20" s="23" t="str">
+        <f>TRIM(A20)</f>
+        <v>Брагин Эдуард Викторович</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="D20" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="H16" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="I16" s="41" t="s">
+      <c r="E20" s="23" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="29"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="29"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="29"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="29"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="29"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="29"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="29"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="29"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="29"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="29"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="29"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="29"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="29"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="36" t="s">
+      <c r="F20" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>БРАГИНэдуард</v>
+      </c>
+      <c r="G20" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Э</v>
+      </c>
+      <c r="H20" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>В</v>
+      </c>
+      <c r="I20" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>Брагин Э.В.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="29"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="29"/>
+      <c r="B21" s="23" t="str">
+        <f>TRIM(A21)</f>
+        <v>Никифорова Галина Лаврентьевна</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F21" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>НИКИФОРОВАгалина</v>
+      </c>
+      <c r="G21" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Г</v>
+      </c>
+      <c r="H21" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>Л</v>
+      </c>
+      <c r="I21" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>Никифорова Г.Л.</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22" s="23" t="str">
+        <f>TRIM(A22)</f>
+        <v>Елисеев Борис Мартынович</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ЕЛИСЕЕВборис</v>
+      </c>
+      <c r="G22" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Б</v>
+      </c>
+      <c r="H22" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>М</v>
+      </c>
+      <c r="I22" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>Елисеев Б.М.</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="23" t="str">
+        <f>TRIM(A23)</f>
+        <v>Блинов Даниил Демьянович</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="F23" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>БЛИНОВданиил</v>
+      </c>
+      <c r="G23" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Д</v>
+      </c>
+      <c r="H23" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>Д</v>
+      </c>
+      <c r="I23" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>Блинов Д.Д.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="23" t="str">
+        <f>TRIM(A24)</f>
+        <v>Белов Станислав Егорович</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>БЕЛОВстанислав</v>
+      </c>
+      <c r="G24" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>С</v>
+      </c>
+      <c r="H24" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>Е</v>
+      </c>
+      <c r="I24" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>Белов С.Е.</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25" s="23" t="str">
+        <f>TRIM(A25)</f>
+        <v>Панфилов Ефим Михаилович</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="F25" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ПАНФИЛОВефим</v>
+      </c>
+      <c r="G25" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Е</v>
+      </c>
+      <c r="H25" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>М</v>
+      </c>
+      <c r="I25" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>Панфилов Е.М.</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" s="23" t="str">
+        <f>TRIM(A26)</f>
+        <v>Фролов Георгий Владимирович</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="F26" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ФРОЛОВгеоргий</v>
+      </c>
+      <c r="G26" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Г</v>
+      </c>
+      <c r="H26" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>В</v>
+      </c>
+      <c r="I26" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>Фролов Г.В.</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="23" t="str">
+        <f>TRIM(A27)</f>
+        <v>Елисеева Элеонора Агафоновна</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="F27" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ЕЛИСЕЕВАэлеонора</v>
+      </c>
+      <c r="G27" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Э</v>
+      </c>
+      <c r="H27" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>А</v>
+      </c>
+      <c r="I27" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>Елисеева Э.А.</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B28" s="23" t="str">
+        <f>TRIM(A28)</f>
+        <v>Пахомов Максим Андреевич</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F28" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ПАХОМОВмаксим</v>
+      </c>
+      <c r="G28" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>М</v>
+      </c>
+      <c r="H28" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>А</v>
+      </c>
+      <c r="I28" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>Пахомов М.А.</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B29" s="23" t="str">
+        <f>TRIM(A29)</f>
+        <v>Коновалов Роман Викторович</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F29" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>КОНОВАЛОВроман</v>
+      </c>
+      <c r="G29" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Р</v>
+      </c>
+      <c r="H29" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>В</v>
+      </c>
+      <c r="I29" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>Коновалов Р.В.</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="B30" s="23" t="str">
+        <f>TRIM(A30)</f>
+        <v>Карпов Михаил Валерьевич</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="F30" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>КАРПОВмихаил</v>
+      </c>
+      <c r="G30" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>М</v>
+      </c>
+      <c r="H30" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>В</v>
+      </c>
+      <c r="I30" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>Карпов М.В.</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" s="23" t="str">
+        <f>TRIM(A31)</f>
+        <v>Емельянов Олег Иванович</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="F31" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ЕМЕЛЬЯНОВолег</v>
+      </c>
+      <c r="G31" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>О</v>
+      </c>
+      <c r="H31" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>И</v>
+      </c>
+      <c r="I31" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>Емельянов О.И.</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="B32" s="23" t="str">
+        <f>TRIM(A32)</f>
+        <v>Николаева Ираида Геннадьевна</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="F32" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>НИКОЛАЕВАираида</v>
+      </c>
+      <c r="G32" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>И</v>
+      </c>
+      <c r="H32" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>Г</v>
+      </c>
+      <c r="I32" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>Николаева И.Г.</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="B33" s="23" t="str">
+        <f>TRIM(A33)</f>
+        <v>Мясников Владимир Иванович</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="F33" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>МЯСНИКОВвладимир</v>
+      </c>
+      <c r="G33" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>В</v>
+      </c>
+      <c r="H33" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>И</v>
+      </c>
+      <c r="I33" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>Мясников В.И.</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
